--- a/ApolloQA/Data/RatingManual/GA/UM00026.OrganizationTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/UM00026.OrganizationTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UM00026.OrganizationTypeFactors" sheetId="1" r:id="Rc8d8134285b34ac3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UM00026.OrganizationTypeFactors" sheetId="1" r:id="R792b24c37e0e4377"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,21 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Organization Type</x:v>
+        <x:v>Business Experience Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Organization Type Factor</x:v>
+        <x:v>Business Experience Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Business Experience Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Churches and Religious Organizations</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,122 +34,112 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Corporation</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9549</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Counties/Townships/Parishes, Etc.</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9549</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Districts/Precincts</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9549</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Federal</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Indian Tribes</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Individual</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2518</x:v>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8800</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>LLC</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0500</x:v>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8800</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Municipality</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8800</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Other</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8800</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Other Non-Profit Associations and Organizations</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Partnership</x:v>
+        <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Rural</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Schools</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>Social Service Agencies and Organizations</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>States</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
+        <x:v>0.8800</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
